--- a/biology/Botanique/Pancovia/Pancovia.xlsx
+++ b/biology/Botanique/Pancovia/Pancovia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pancovia est un genre de plantes de la famille des Sapindaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 septembre 2017) :
 Pancovia bijuga Willd.
 Pancovia floribunda Pellegr.
 Pancovia golungensis (Hiern) Exell &amp; Mendonca
@@ -528,11 +542,11 @@
 Pancovia subcuneata Radlk.
 Pancovia thyrsiflora Gilg ex Radlk.
 Pancovia turbinata Radlk.
-Selon NCBI  (24 septembre 2017)[3] :
+Selon NCBI  (24 septembre 2017) :
 Pancovia golungensis
 Pancovia laurentii
 Pancovia turbinata
-Selon The Plant List            (24 septembre 2017)[4] :
+Selon The Plant List            (24 septembre 2017) :
 Pancovia bijuga Willd.
 Pancovia circinata (Brid.) Pire
 Pancovia crassinervia (Taylor) Pire
@@ -558,7 +572,7 @@
 Pancovia subcuneata Radlk.
 Pancovia tenella (Dicks.) Pire
 Pancovia turbinata Radlk.
-Selon Tropicos                                           (24 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Pancovia albicans (Hedw.) J. Kickx f.
 Pancovia angustifolia Radlk.
 Pancovia bijuga Willd.
